--- a/benchmark/base.xlsx
+++ b/benchmark/base.xlsx
@@ -10,6 +10,7 @@
     <sheet name="benchmark" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">benchmark!$A$1:$J$26</definedName>
     <definedName name="hours_btw_doses">#REF!</definedName>
     <definedName name="hoursbtwdoses">#REF!</definedName>
     <definedName name="lpkopo">#REF!</definedName>
@@ -26,6 +27,28 @@
   </authors>
   <commentList>
     <comment ref="E11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Aim Trainer</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0">
+    <comment ref="F17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,21 +82,23 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
-          <t>Aim Trainer</t>
+          <t>Chimp Test</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0">
+    <comment ref="D18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0">
+    <comment ref="C25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,30 +136,6 @@
           </rPr>
           <t xml:space="preserve">Typing WPM
 Verbal Memory points
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chimp Test</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -827,7 +828,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -847,9 +848,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -859,6 +857,12 @@
     <xf numFmtId="14" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -868,11 +872,17 @@
     <xf numFmtId="14" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -902,7 +912,1195 @@
     <cellStyle name="top boarder" xfId="23"/>
     <cellStyle name="yallow" xfId="24"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="74">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333F4F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -915,6 +2113,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF333F4F"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1209,13 +2412,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -1245,7 +2448,7 @@
       <c r="F1" s="2">
         <v>44737</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1256,7 +2459,7 @@
       <c r="B2" s="6">
         <v>29</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>32</v>
       </c>
       <c r="D2" s="6">
@@ -1266,7 +2469,7 @@
       <c r="F2" s="6">
         <v>32</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="11">
         <v>30</v>
       </c>
     </row>
@@ -1289,7 +2492,7 @@
       <c r="F3" s="6">
         <v>11</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="11">
         <v>31</v>
       </c>
     </row>
@@ -1303,7 +2506,7 @@
       <c r="C4" s="6">
         <v>9</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>12</v>
       </c>
       <c r="E4" s="6">
@@ -1312,7 +2515,7 @@
       <c r="F4" s="6">
         <v>10</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="11">
         <v>9</v>
       </c>
     </row>
@@ -1335,7 +2538,7 @@
       <c r="F5" s="6">
         <v>7</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="11">
         <v>12</v>
       </c>
     </row>
@@ -1352,13 +2555,13 @@
       <c r="D6" s="6">
         <v>254</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>248</v>
       </c>
       <c r="F6" s="6">
         <v>257</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="11">
         <v>274</v>
       </c>
     </row>
@@ -1375,13 +2578,13 @@
       <c r="D7" s="6">
         <v>9</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>10</v>
       </c>
       <c r="F7" s="6">
         <v>9</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="11">
         <v>9</v>
       </c>
     </row>
@@ -1398,13 +2601,13 @@
       <c r="D8" s="6">
         <v>558</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>537</v>
       </c>
       <c r="F8" s="6">
         <v>558</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="11">
         <v>600</v>
       </c>
     </row>
@@ -1424,21 +2627,21 @@
       <c r="E9" s="6">
         <v>6</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>10</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="10"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1450,20 +2653,18 @@
     <row r="11" spans="1:10">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.55000000000000004</v>
+        <v>16</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="H11" s="6">
         <v>8</v>
@@ -1471,7 +2672,7 @@
       <c r="I11" s="6">
         <v>4</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <f>H11/I11</f>
         <v>2</v>
       </c>
@@ -1479,76 +2680,86 @@
     <row r="12" spans="1:10">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="D12" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>46</v>
+        <v>13</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.55000000000000004</v>
       </c>
       <c r="H12" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I12" s="6">
-        <v>3</v>
-      </c>
-      <c r="J12" s="8">
+        <v>5</v>
+      </c>
+      <c r="J12" s="7">
         <f>H12/I12</f>
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G13" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H13" s="6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I13" s="6">
-        <v>2</v>
-      </c>
-      <c r="J13" s="8">
+        <v>5</v>
+      </c>
+      <c r="J13" s="7">
         <f>H13/I13</f>
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="6"/>
       <c r="H14" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I14" s="6">
-        <v>1</v>
-      </c>
-      <c r="J14" s="8">
+        <v>4</v>
+      </c>
+      <c r="J14" s="7">
         <f>H14/I14</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1564,189 +2775,248 @@
         <v>35</v>
       </c>
       <c r="H15" s="6">
+        <v>3</v>
+      </c>
+      <c r="I15" s="6">
         <v>2</v>
       </c>
-      <c r="I15" s="6">
-        <v>1</v>
-      </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <f>H15/I15</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="H16" s="6">
+        <v>3</v>
+      </c>
+      <c r="I16" s="6">
         <v>2</v>
       </c>
-      <c r="I16" s="6">
-        <v>1</v>
-      </c>
-      <c r="J16" s="8">
-        <f t="shared" ref="J16:J21" si="0">H16/I16</f>
-        <v>2</v>
+      <c r="J16" s="7">
+        <f>H16/I16</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6">
+        <v>3</v>
+      </c>
+      <c r="I17" s="6">
         <v>2</v>
       </c>
-      <c r="I17" s="6">
-        <v>1</v>
-      </c>
-      <c r="J17" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="J17" s="7">
+        <f>H17/I17</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H18" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I18" s="6">
-        <v>5</v>
-      </c>
-      <c r="J18" s="8">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
+        <v>3</v>
+      </c>
+      <c r="J18" s="7">
+        <f>H18/I18</f>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="C19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6">
-        <v>6</v>
-      </c>
-      <c r="I19" s="6">
-        <v>4</v>
-      </c>
-      <c r="J19" s="8">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+      <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="17">
+        <v>2</v>
+      </c>
+      <c r="I19" s="17">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <f>H19/I19</f>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="C20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6">
+      <c r="A20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="17">
+        <v>2</v>
+      </c>
+      <c r="I20" s="17">
         <v>1</v>
       </c>
-      <c r="I20" s="6">
-        <v>1</v>
-      </c>
-      <c r="J20" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="J20" s="3">
+        <f>H20/I20</f>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="C21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="17">
+        <v>2</v>
+      </c>
+      <c r="I21" s="17">
         <v>1</v>
       </c>
-      <c r="J21" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="J21" s="3">
+        <f>H21/I21</f>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <f>H22/I22</f>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <f>H23/I23</f>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>43</v>
+      <c r="A24" s="18"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15">
+        <v>1</v>
+      </c>
+      <c r="I24" s="15">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7">
+        <f>H24/I24</f>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>45</v>
+      <c r="A25" s="18"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15">
+        <v>1</v>
+      </c>
+      <c r="I25" s="15">
+        <v>1</v>
+      </c>
+      <c r="J25" s="7">
+        <f>H25/I25</f>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>37</v>
+      <c r="C26" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15">
+        <v>1</v>
+      </c>
+      <c r="I26" s="15">
+        <v>1</v>
+      </c>
+      <c r="J26" s="7">
+        <f>H26/I26</f>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="252">
@@ -1755,11 +3025,43 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A11:J26">
+    <sortCondition descending="1" sortBy="cellColor" ref="I11:I26" dxfId="11"/>
+    <sortCondition descending="1" ref="J11:J26"/>
+    <sortCondition descending="1" ref="H11:H26"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A10:F10"/>
   </mergeCells>
   <conditionalFormatting sqref="J11:J21">
-    <cfRule type="aboveAverage" dxfId="0" priority="1"/>
+    <cfRule type="aboveAverage" dxfId="30" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:G2">
+    <cfRule type="top10" dxfId="29" priority="9" percent="1" rank="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:G3">
+    <cfRule type="top10" dxfId="28" priority="8" percent="1" rank="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:G4">
+    <cfRule type="top10" dxfId="27" priority="7" percent="1" rank="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:G5">
+    <cfRule type="top10" dxfId="26" priority="6" percent="1" rank="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:G6">
+    <cfRule type="top10" dxfId="25" priority="5" percent="1" bottom="1" rank="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:G7">
+    <cfRule type="top10" dxfId="24" priority="4" percent="1" rank="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:G8">
+    <cfRule type="top10" dxfId="23" priority="3" percent="1" bottom="1" rank="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:G9">
+    <cfRule type="top10" dxfId="22" priority="2" percent="1" rank="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I26">
+    <cfRule type="top10" dxfId="12" priority="1" percent="1" bottom="1" rank="20"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
